--- a/outputs/competitive_bills.xlsx
+++ b/outputs/competitive_bills.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>bill_id</t>
   </si>
@@ -180,6 +180,186 @@
   </si>
   <si>
     <t>HB1423</t>
+  </si>
+  <si>
+    <t>sponsors</t>
+  </si>
+  <si>
+    <t>committee_members</t>
+  </si>
+  <si>
+    <t>Family, Children, Human Affairs &amp; Public Health</t>
+  </si>
+  <si>
+    <t>Elections &amp; Apportionment</t>
+  </si>
+  <si>
+    <t>Environment &amp; Natural Resources</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Ways &amp; Means, Appropriations</t>
+  </si>
+  <si>
+    <t>Courts &amp; Judicial</t>
+  </si>
+  <si>
+    <t>Government &amp; Regulatory Reform</t>
+  </si>
+  <si>
+    <t>Banks &amp; Financial Institutions</t>
+  </si>
+  <si>
+    <t>Roads &amp; Transportation</t>
+  </si>
+  <si>
+    <t>Local Government</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Commerce, Business, Economic Development</t>
+  </si>
+  <si>
+    <t>Utilities, Energy &amp; Telecommunications</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Linda Lawson,Sheila Klinker,Edward Clere,Vanessa Summers,Ronald Bacon,Rebecca Kubacki,Kevin Mahan,Milo Smith,Mark Stoops,Dan Forestal,Karlee Macer,Cindy Ziemke</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Vanessa Summers,John Bartlett,Rebecca Kubacki,Kevin Mahan,Milo Smith,Dale DeVon,Karlee Macer,Cindy Ziemke,Wes Culver,David Frizzell,Rhonda Rhoads</t>
+  </si>
+  <si>
+    <t>Brian Bosma,Gerald Torr,Wes Culver,Terry Goodin,Milo Smith,Dan Forestal,Richard Hamm,Justin Moed</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Terry Goodin,Charles Burton,Kathy Richardson,Milo Smith,Timothy Wesco,Richard Hamm,Casey Cox,Holli Sullivan,John Bartlett,Jeffrey Thompson,Kreg Battles,Philip GiaQuinta</t>
+  </si>
+  <si>
+    <t>Eric Koch,Gail Riecken,Greg Taylor,Robert Heaton,Holli Sullivan</t>
+  </si>
+  <si>
+    <t>Gail Riecken,Charles Burton,Philip GiaQuinta,Randall Frye,Robert Heaton,Mike Speedy,Richard Hamm,Justin Moed,John Price,Robin Shackleford,Thomas Washburne,Dennis Zent</t>
+  </si>
+  <si>
+    <t>Rochelle VanDenburgh,Milo Smith</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Charles Burton,Kathy Richardson,John Bartlett,Jeffrey Thompson,Kreg Battles,Philip GiaQuinta,Milo Smith,Timothy Wesco,Richard Hamm,Casey Cox,Holli Sullivan</t>
+  </si>
+  <si>
+    <t>David Wolkins,Heath VanNatter,David Ober</t>
+  </si>
+  <si>
+    <t>Timothy Neese,William Friend,David Wolkins,Jack Lutz,Donald Lehe,Sean Eberhart,Robert Morris,Heath VanNatter,Jim Lucas,Matt Pierce,Ryan Dvorak,Sue Errington</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Timothy Harman</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Doug Gutwein,Robert Morris,Timothy Wesco,Mike Speedy,David Ober,Martin Carbaugh,David Niezgodski,Charles Moseley,John Bartlett,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Terry Goodin,Mark Messmer,Dennis Kruse,Carlin Yoder,Brent Steele,Robert Morris,Heath VanNatter</t>
+  </si>
+  <si>
+    <t>Eric Koch,Vernon Smith,Gregory Steuerwald,Gerald Torr,Wendy McNamara,Peggy Mayfield,Thomas Washburne,Casey Cox</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Karen Tallian,Lonnie Randolph,Brent Steele</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Sheila Klinker,Charles Moseley,Doug Gutwein,Randall Frye,Cindy Kirchhofer,Lloyd Arnold,Karlee Macer,John Price,Dennis Zent,Casey Cox,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Timothy Brown,Eric Turner,Todd Huston,Steven Braun</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Randy Truitt,Timothy Brown,Robert Cherry,Eric Turner,Jeffrey Thompson,Michael Karickhoff,James Baird,Sharon Negele,Todd Huston,Peggy Mayfield,David Ober,Steven Braun,David Niezgodski,Clyde Kersey,Sheila Klinker,Mara Reardon,Cherrish Pryor,Gregory Porter,Steven Stemler,Harold Slager</t>
+  </si>
+  <si>
+    <t>Eric Turner,Gregory Porter,Greg Taylor,Judson McMillin,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>Gregory Steuerwald,Edward DeLaney,Matt Pierce,Matthew Lehman,Rebecca Kubacki,Judson McMillin,Rhonda Rhoads,Kevin Mahan,Wendy McNamara,Timothy Harman,Ryan Dvorak,Sean Eberhart</t>
+  </si>
+  <si>
+    <t>Eric Koch,Terry Goodin,Judson McMillin,Todd Huston</t>
+  </si>
+  <si>
+    <t>Wes Culver,David Wolkins,Milo Smith,Justin Moed,Thomas Washburne,Cindy Ziemke,Holli Sullivan,Vanessa Summers,Charlie Brown,Robin Shackleford</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Matthew Lehman,Martin Carbaugh</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Gerald Torr,Matthew Lehman,Robert Heaton,Kevin Mahan,Cindy Kirchhofer,Christina Hale,Richard Hamm,Martin Carbaugh,Holli Sullivan,Edward DeLaney,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Matthew Lehman,Martin Carbaugh</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Charles Burton,Matthew Lehman,Robert Heaton,Cindy Kirchhofer,Richard Hamm,Martin Carbaugh,Holli Sullivan,Terri Jo Austin,Edward DeLaney,Charlie Brown,Christina Hale</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Timothy Brown</t>
+  </si>
+  <si>
+    <t>Edmond Soliday,Thomas Saunders,Randall Frye,Judson McMillin,Mike Speedy,Lloyd Arnold,Ben Smaltz,Greg Beumer,Edward DeLaney,Cherrish Pryor,Steven Stemler,Dan Forestal,Rick Niemeyer</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Cindy Kirchhofer,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Randy Truitt,Kevin Mahan,Kathleen Heuer,Wendy McNamara,Timothy Wesco,Christina Hale,Timothy Harman,Mara Reardon,John Bartlett,Karlee Macer,Rick Niemeyer,Greg Beumer</t>
+  </si>
+  <si>
+    <t>Robert Behning,Greg Taylor,Scott Schneider,Ronald Grooms,Todd Huston</t>
+  </si>
+  <si>
+    <t>Edward Clere,Charles Burton,Jeffrey Thompson,Robert Behning,Rhonda Rhoads,Lloyd Arnold,Dale DeVon,Todd Huston,Jim Lucas,Vernon Smith,Rochelle VanDenburgh,Kreg Battles,Sue Errington</t>
+  </si>
+  <si>
+    <t>Daniel Leonard,Philip GiaQuinta,Robert Morris,Richard Hamm</t>
+  </si>
+  <si>
+    <t>Gerald Torr,Doug Gutwein,Rebecca Kubacki,Timothy Wesco,David Ober,John Price,Martin Carbaugh,David Niezgodski,Charles Moseley,John Bartlett,Dan Forestal</t>
+  </si>
+  <si>
+    <t>Mark Messmer,Philip GiaQuinta,Heath VanNatter,Justin Moed</t>
+  </si>
+  <si>
+    <t>Eric Turner,Charlie Brown</t>
+  </si>
+  <si>
+    <t>Sheila Klinker,Randy Truitt,Timothy Brown,Robert Cherry,Cherrish Pryor,Eric Turner,Jeffrey Thompson,Gregory Porter,Matthew Ubelhor,James Baird,Sharon Negele,Todd Huston,David Ober,Steven Braun</t>
+  </si>
+  <si>
+    <t>Eric Koch,Timothy Neese,Wes Culver,Charles Burton,Mark Messmer,Eric Turner,Dennis Kruse,Brandt Hershman,Rebecca Kubacki,Randall Frye,Judson McMillin,Rhonda Rhoads,Kevin Mahan,Robert Morris,Heath VanNatter,Matthew Ubelhor,Mike Speedy,James Smith,Dale DeVon,Timothy Harman,Todd Huston,David Ober,Ben Smaltz,Steven Braun,Jim Lucas</t>
+  </si>
+  <si>
+    <t>Wes Culver,David Frizzell,Rebecca Kubacki,Rhonda Rhoads,Kevin Mahan,Milo Smith,Dale DeVon,Cindy Ziemke,Gail Riecken,Vanessa Summers,John Bartlett,Karlee Macer</t>
+  </si>
+  <si>
+    <t>Robert Behning,John Broden</t>
+  </si>
+  <si>
+    <t>Vernon Smith,Edward Clere,Charles Burton,Rochelle VanDenburgh,Kreg Battles,Robert Behning,Sue Errington,Lloyd Arnold,Dale DeVon,Jim Lucas,Rhonda Rhoads</t>
+  </si>
+  <si>
+    <t>Terri Jo Austin,Eric Turner,Judson McMillin,Heath VanNatter</t>
+  </si>
+  <si>
+    <t>Kevin Mahan,Kathleen Heuer,Wendy McNamara,Timothy Wesco,Timothy Harman,Rick Niemeyer,Greg Beumer,Randy Truitt,Mara Reardon,John Bartlett,Christina Hale,Karlee Macer</t>
+  </si>
+  <si>
+    <t>Eric Koch,Kreg Battles,Heath VanNatter,Christina Hale</t>
+  </si>
+  <si>
+    <t>Eric Koch,Edmond Soliday,Timothy Neese,Kreg Battles,David Frizzell,Heath VanNatter,Christina Hale,Alan Morrison</t>
   </si>
 </sst>
 </file>
@@ -532,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,10 +725,11 @@
     <col min="3" max="3" width="113.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +748,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>578561</v>
       </c>
@@ -584,11 +771,17 @@
       <c r="E2" s="1">
         <v>41704</v>
       </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>578632</v>
       </c>
@@ -604,11 +797,17 @@
       <c r="E3" s="1">
         <v>41674</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>580573</v>
       </c>
@@ -624,11 +823,17 @@
       <c r="E4" s="1">
         <v>41725</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>580793</v>
       </c>
@@ -644,11 +849,17 @@
       <c r="E5" s="1">
         <v>41703</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>580935</v>
       </c>
@@ -664,11 +875,17 @@
       <c r="E6" s="1">
         <v>41674</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>581272</v>
       </c>
@@ -684,11 +901,17 @@
       <c r="E7" s="1">
         <v>41702</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>581544</v>
       </c>
@@ -704,11 +927,17 @@
       <c r="E8" s="1">
         <v>41701</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>582913</v>
       </c>
@@ -724,11 +953,17 @@
       <c r="E9" s="1">
         <v>41674</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>583138</v>
       </c>
@@ -744,11 +979,17 @@
       <c r="E10" s="1">
         <v>41704</v>
       </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>583363</v>
       </c>
@@ -764,11 +1005,17 @@
       <c r="E11" s="1">
         <v>41704</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>587734</v>
       </c>
@@ -784,11 +1031,17 @@
       <c r="E12" s="1">
         <v>41704</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>587744</v>
       </c>
@@ -804,11 +1057,17 @@
       <c r="E13" s="1">
         <v>41674</v>
       </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>588014</v>
       </c>
@@ -824,11 +1083,17 @@
       <c r="E14" s="1">
         <v>41674</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>588464</v>
       </c>
@@ -844,11 +1109,17 @@
       <c r="E15" s="1">
         <v>41702</v>
       </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>588490</v>
       </c>
@@ -864,11 +1135,17 @@
       <c r="E16" s="1">
         <v>41673</v>
       </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>590009</v>
       </c>
@@ -884,11 +1161,17 @@
       <c r="E17" s="1">
         <v>41704</v>
       </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>590034</v>
       </c>
@@ -904,11 +1187,17 @@
       <c r="E18" s="1">
         <v>41704</v>
       </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>590052</v>
       </c>
@@ -924,11 +1213,17 @@
       <c r="E19" s="1">
         <v>41703</v>
       </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>590117</v>
       </c>
@@ -944,11 +1239,17 @@
       <c r="E20" s="1">
         <v>41704</v>
       </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>590374</v>
       </c>
@@ -964,11 +1265,17 @@
       <c r="E21" s="1">
         <v>41703</v>
       </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>590787</v>
       </c>
@@ -984,11 +1291,17 @@
       <c r="E22" s="1">
         <v>41704</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>591158</v>
       </c>
@@ -1004,11 +1317,17 @@
       <c r="E23" s="1">
         <v>41704</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>592389</v>
       </c>
@@ -1024,8 +1343,14 @@
       <c r="E24" s="1">
         <v>41703</v>
       </c>
-      <c r="F24">
-        <v>14</v>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
